--- a/数据/20240630000302.xlsx
+++ b/数据/20240630000302.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\python\bilibili日V周刊\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506A2E4B-003B-4FBD-9A2C-C8543FB8D868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F2EB1-7824-4928-9D6E-F0FAEBF160A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="2607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="2610">
   <si>
     <t>video_title</t>
   </si>
@@ -7853,6 +7853,18 @@
   </si>
   <si>
     <t>沫尾</t>
+  </si>
+  <si>
+    <t>synthesizer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7890,7 +7902,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -7913,13 +7925,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8224,15 +8250,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N558"/>
+  <dimension ref="A1:Q558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" workbookViewId="0">
-      <selection activeCell="W535" sqref="W535"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8275,8 +8301,17 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -8320,7 +8355,7 @@
         <v>448230</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8364,7 +8399,7 @@
         <v>326107</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -8408,7 +8443,7 @@
         <v>200922</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -8452,7 +8487,7 @@
         <v>242400</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -8496,7 +8531,7 @@
         <v>240706</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -8540,7 +8575,7 @@
         <v>253213</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -8584,7 +8619,7 @@
         <v>265632</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -8628,7 +8663,7 @@
         <v>173904</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -8672,7 +8707,7 @@
         <v>143217</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -8716,7 +8751,7 @@
         <v>170852</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -8760,7 +8795,7 @@
         <v>198157</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -8804,7 +8839,7 @@
         <v>296281</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -8848,7 +8883,7 @@
         <v>215324</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -8892,7 +8927,7 @@
         <v>199314</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
